--- a/config_12.01/game_module_config_cjj.xlsx
+++ b/config_12.01/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4298,10 +4298,10 @@
   <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E231" sqref="E231"/>
+      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5969,7 +5969,7 @@
         <v>190</v>
       </c>
       <c r="E64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -11594,7 +11594,7 @@
         <v>864</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287">
         <v>1</v>
